--- a/src/main/resources/static/TestCaseUpload/SimpleLoanCheckWithtimeOut(ST-Weak/1)/simpleLoanTestV2.xlsx
+++ b/src/main/resources/static/TestCaseUpload/SimpleLoanCheckWithtimeOut(ST-Weak/1)/simpleLoanTestV2.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BPMN\99Web\WuMuBPMN\testData\01LoanChecking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D42018B-A670-4D69-B0FC-9227BE0BD3B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC880512-ACD4-4624-90DB-55A8FA6DB391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{C7C011D0-8F83-4AAE-9FB1-29BDC71E7020}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{C7C011D0-8F83-4AAE-9FB1-29BDC71E7020}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="TC03" sheetId="3" r:id="rId3"/>
     <sheet name="TC04" sheetId="4" r:id="rId4"/>
     <sheet name="TC05" sheetId="5" r:id="rId5"/>
+    <sheet name="TC06" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="31">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -108,9 +109,6 @@
     <t>TC04</t>
   </si>
   <si>
-    <t>simpleLoanWithProcesstimeOut.bpmn</t>
-  </si>
-  <si>
     <t>Loan Request Complete</t>
   </si>
   <si>
@@ -121,13 +119,22 @@
 , collateralAmt=70000</t>
   </si>
   <si>
-    <t>simpleLoan.bpmn</t>
-  </si>
-  <si>
     <t>Loan Request Check Complete</t>
   </si>
   <si>
     <t>Reject Loan Request Check</t>
+  </si>
+  <si>
+    <t>Wait Time</t>
+  </si>
+  <si>
+    <t>PT5M</t>
+  </si>
+  <si>
+    <t>SimpleLoanCheckWithtimeOut.bpmn</t>
+  </si>
+  <si>
+    <t>TC06</t>
   </si>
 </sst>
 </file>
@@ -159,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -186,24 +193,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -213,79 +202,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,10 +532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072E86E4-17A8-4F60-BEC3-8DC71646E341}">
-  <dimension ref="A1:D9"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,17 +545,18 @@
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -630,20 +564,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -656,54 +590,61 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -713,10 +654,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715C12EB-9B09-48B2-A88D-194C839C5510}">
-  <dimension ref="A1:D10"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,17 +667,18 @@
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -743,20 +686,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -769,68 +712,76 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -840,10 +791,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738D70D7-61BA-49B7-9B00-029376F9A97A}">
-  <dimension ref="A1:D10"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,17 +804,18 @@
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -870,20 +823,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -896,68 +849,76 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -967,10 +928,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D52E839-94E7-49E6-AFE5-2896C7A4653A}">
-  <dimension ref="A1:D9"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,17 +941,18 @@
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -997,20 +960,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1023,54 +986,61 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1080,10 +1050,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE4F335-925C-47CC-92AB-826B85EF5450}">
-  <dimension ref="A1:D10"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,38 +1063,176 @@
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B893A3A2-1A21-46E3-90FD-448E5379601E}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1136,68 +1245,76 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="C8" s="6"/>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
